--- a/pred_ohlcv/54_21/2020-01-25 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 BSV ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-59.11294387999995</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-159.4939577399999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-159.5921577399999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-144.9857572599999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-343.0841572599999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-343.0841572599999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-558.7759152499999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-558.7759152499999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-722.9276152499999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-507.3306152499999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-364.45705227</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-423.48425227</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-598.08425084</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-623.65392293</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-561.88722293</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-559.78397602</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-603.67797602</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-612.5199760199999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-4315.24823718</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-4339.69333718</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-4339.69333718</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-4376.73543558</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-3851.024310789998</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-3872.867521859997</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-3866.389221859997</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-3873.971121859997</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-3858.031021859998</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-3865.230821859997</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-3865.230821859997</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-3865.230821859997</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-3856.918321859997</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-3741.138121859997</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-3629.335021859997</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-10927.7878299</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-10891.3299299</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-10704.5310299</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-10603.71705512</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-10592.94365512</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-10533.83065512</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-10323.25635609</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-10402.40505609</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-10334.64525609</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-10360.99125609</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-10176.2611785</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-10205.2596785</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-10205.2596785</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-10460.1169849</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-10460.1169849</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-10482.0146849</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-10483.0483849</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-10379.7568849</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-10260.9901849</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-10257.4365849</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-10432.2903849</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-10382.52735521</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-10420.86565521</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-10410.86565521</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-10458.05265521</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-10532.56555521</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-10567.63655521</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-10540.57475521</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-10509.41925521</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-9473.285639219997</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-11674.67180447001</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-11522.20470447001</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-11675.31220447001</v>
       </c>
       <c r="H1016">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-11699.56730447001</v>
       </c>
       <c r="H1017">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-11699.06130447001</v>
       </c>
       <c r="H1018">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-11702.06130447001</v>
       </c>
       <c r="H1019">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-11702.06130447001</v>
       </c>
       <c r="H1020">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-11794.16130447001</v>
       </c>
       <c r="H1021">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-10287.72933964001</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-10636.97513964001</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-10756.12673964001</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-10879.69973964001</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-10657.39078095001</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-10670.97918095001</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-10923.66425774001</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-11000.59765774001</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-11000.59765774001</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-11000.59765774001</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-11021.38885774001</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-11036.47995774001</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-11036.47995774001</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-10999.69965774001</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-11011.99345774001</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-11180.33245774001</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-11158.26985774001</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-11228.55375774001</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-11263.49075774001</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-11304.73215774001</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-11380.83555774001</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-11460.35825774001</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-11446.56525774001</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-11495.17735774001</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-11570.13465774001</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-11465.49255774001</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-11473.49335774001</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-11473.17915774001</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-11467.07435774001</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-11421.61295774001</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-11421.33305774001</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-11508.58555844001</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-11503.96155844001</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-11517.54715844001</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-11464.79585844001</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-11509.29075844001</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-11533.46415844001</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-11504.45015844001</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-11480.39235844001</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-11475.21245844001</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-11436.69955844001</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-11339.46135844001</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-11375.44035844001</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-11375.44035844001</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-9770.672515680015</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-10008.64186551002</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-9262.313113520015</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-8736.203983980015</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-8332.062882710015</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-7651.096613520015</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-6801.875477700015</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-7144.679162230014</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1154" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 BSV ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-59.11294387999995</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-159.4939577399999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-159.5921577399999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-144.9857572599999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-343.0841572599999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-343.0841572599999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-558.7759152499999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-558.7759152499999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-722.9276152499999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-507.3306152499999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-364.45705227</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-423.48425227</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-598.08425084</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-623.65392293</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-561.88722293</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-559.78397602</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-597.94417602</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-603.67797602</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-612.5199760199999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-612.5199760199999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-530.82697602</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-530.82697602</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-548.1345760199999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-597.5395760199999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-662.4672760199999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-773.2633621599998</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-525.6391621599998</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-523.6921593699998</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-593.1082593699998</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-714.3017593699998</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-4315.24823718</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-4339.69333718</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-4339.69333718</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-4376.73543558</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-3851.024310789998</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-3872.867521859997</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-3866.389221859997</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-3873.971121859997</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-3858.031021859998</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-3865.230821859997</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-3865.230821859997</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-3865.230821859997</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-3856.918321859997</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-3741.138121859997</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-3629.335021859997</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-3624.434506179997</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-10704.5310299</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-10603.71705512</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-10592.94365512</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-10533.83065512</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-10323.25635609</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-10402.40505609</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-10334.64525609</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-10360.99125609</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-10176.2611785</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-10205.2596785</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-10205.2596785</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-10234.7163785</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-10161.43013226</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-10441.46053336</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-10441.46053336</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-10441.2898849</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-10458.6918849</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-10458.6918849</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-10463.0629849</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-10463.0629849</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-10460.1169849</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-10460.1169849</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-10482.0146849</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-10483.0483849</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-10460.7574849</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-10379.7568849</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-10379.7568849</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-10260.9901849</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-10257.4365849</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-10162.0805849</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-10218.9232849</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-10326.3125849</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-10411.8505849</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-10411.8505849</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-10411.8505849</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-10411.8505849</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-10398.8385849</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-10398.8429849</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-10403.0959849</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-10432.2903849</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-10382.52735521</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-10382.52735521</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-10357.55045521</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-10342.56285521</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-10369.97165521</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-10433.39255521</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-10448.51285521</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-10439.62075521</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-10439.62075521</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-10420.83405521</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-10431.39895521</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-10478.72805521</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-10455.40295521</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-10455.90185521</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-10455.90185521</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-10439.45125521</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-10590.88915521</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-10443.40135521</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-10477.42655521</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-10438.83905521</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-10493.41925521</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-10445.53215521</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-10232.52045521</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-10058.8914372</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-10043.7375372</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-9473.285639219997</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-11674.67180447001</v>
       </c>
       <c r="H1009">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-11522.20470447001</v>
       </c>
       <c r="H1010">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-11675.31220447001</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-11699.56730447001</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-11699.06130447001</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-11702.06130447001</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-11702.06130447001</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-11794.16130447001</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-11557.41586245001</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-11587.95546245001</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-10783.04116179001</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-10287.72933964001</v>
       </c>
       <c r="H1045">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-10636.97513964001</v>
       </c>
       <c r="H1047">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-10756.12673964001</v>
       </c>
       <c r="H1048">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-10879.69973964001</v>
       </c>
       <c r="H1049">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-10657.39078095001</v>
       </c>
       <c r="H1053">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-10670.97918095001</v>
       </c>
       <c r="H1054">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-10923.66425774001</v>
       </c>
       <c r="H1063">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-11000.59765774001</v>
       </c>
       <c r="H1064">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-11000.59765774001</v>
       </c>
       <c r="H1065">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-11000.59765774001</v>
       </c>
       <c r="H1066">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-11021.38885774001</v>
       </c>
       <c r="H1067">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-11036.47995774001</v>
       </c>
       <c r="H1068">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-11036.47995774001</v>
       </c>
       <c r="H1069">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-10999.69965774001</v>
       </c>
       <c r="H1070">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-11011.99345774001</v>
       </c>
       <c r="H1071">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-11180.33245774001</v>
       </c>
       <c r="H1072">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-11158.26985774001</v>
       </c>
       <c r="H1073">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-11228.55375774001</v>
       </c>
       <c r="H1074">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-11263.49075774001</v>
       </c>
       <c r="H1075">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-11304.73215774001</v>
       </c>
       <c r="H1076">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-11380.83555774001</v>
       </c>
       <c r="H1077">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-11460.35825774001</v>
       </c>
       <c r="H1078">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-11446.56525774001</v>
       </c>
       <c r="H1079">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-11495.17735774001</v>
       </c>
       <c r="H1080">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-11570.13465774001</v>
       </c>
       <c r="H1081">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-11465.49255774001</v>
       </c>
       <c r="H1082">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-11473.49335774001</v>
       </c>
       <c r="H1083">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-11473.17915774001</v>
       </c>
       <c r="H1084">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-11467.07435774001</v>
       </c>
       <c r="H1085">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-11421.61295774001</v>
       </c>
       <c r="H1086">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-11421.33305774001</v>
       </c>
       <c r="H1087">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-11508.58555844001</v>
       </c>
       <c r="H1095">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-11503.96155844001</v>
       </c>
       <c r="H1096">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-11517.54715844001</v>
       </c>
       <c r="H1097">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-11464.79585844001</v>
       </c>
       <c r="H1099">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-11509.29075844001</v>
       </c>
       <c r="H1100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-11533.46415844001</v>
       </c>
       <c r="H1105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-11504.45015844001</v>
       </c>
       <c r="H1106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-11480.39235844001</v>
       </c>
       <c r="H1107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-11475.21245844001</v>
       </c>
       <c r="H1108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-11436.69955844001</v>
       </c>
       <c r="H1109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-11339.46135844001</v>
       </c>
       <c r="H1110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-11375.44035844001</v>
       </c>
       <c r="H1111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-11375.44035844001</v>
       </c>
       <c r="H1112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-9770.672515680015</v>
       </c>
       <c r="H1122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-10008.64186551002</v>
       </c>
       <c r="H1123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-9262.313113520015</v>
       </c>
       <c r="H1124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-8736.203983980015</v>
       </c>
       <c r="H1125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-8332.062882710015</v>
       </c>
       <c r="H1126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-7651.096613520015</v>
       </c>
       <c r="H1127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-6801.875477700015</v>
       </c>
       <c r="H1128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-7144.679162230014</v>
       </c>
       <c r="H1153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-6186.960793470018</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-6432.714193470018</v>
       </c>
       <c r="H1270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>-6410.884193470018</v>
       </c>
       <c r="H1271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>-6712.028791460018</v>
       </c>
       <c r="H1273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>-7190.538791460018</v>
       </c>
       <c r="H1274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>-7331.777991460018</v>
       </c>
       <c r="H1275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>-7539.995111250018</v>
       </c>
       <c r="H1276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>-7864.388911250017</v>
       </c>
       <c r="H1277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>-7796.901211250018</v>
       </c>
       <c r="H1278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
